--- a/src/test/java/rc25/mFormsAutomation/TestData/ForgotPassword.xlsx
+++ b/src/test/java/rc25/mFormsAutomation/TestData/ForgotPassword.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -416,7 +416,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,17 +440,17 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
